--- a/medicine/Enfance/Yolanda_Arrieta/Yolanda_Arrieta.xlsx
+++ b/medicine/Enfance/Yolanda_Arrieta/Yolanda_Arrieta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yolanda Arrieta Malaxetxeberria, (née à Etxebarria, en Biscaye, le 6 juillet 1963), est une écrivaine, pédagogue et dramaturge en langue basque. Elle est surtout connue pour ses ouvrages de littérature pour enfants en langue basque et pour ses travaux sur l'importance de la tradition orale dans cette littérature.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée de l'École supérieure du professorat d'Eskoriatza (spécialité "Philologie basque"), à l'Université de Mondragón, elle poursuivit ses études et s'est spécialisée en théâtre à l'école "Antzerti" du Gouvernement basque. Ensuite elle a poursuivi des études d'anthropologie culturelle et sociale, à la Faculté de philosophie et sciences de l'éducation de Saint-Sébastien, à l'Université du Pays Basque.
-Aujourd'hui elle vit à Usurbil[1].
-Son activité principale, à laquelle elle s’est consacrée le plus longtemps, est la littérature. En plus de l'écriture narrative, elle a également dirigé des ateliers visant à stimuler le goût pour la littérature et la lecture. Entre autres activités, elle a organisé des séminaires avec des enseignants dans le but de sensibiliser les jeunes à la littérature pour enfants et à la tradition orale[2],[3].
+Aujourd'hui elle vit à Usurbil.
+Son activité principale, à laquelle elle s’est consacrée le plus longtemps, est la littérature. En plus de l'écriture narrative, elle a également dirigé des ateliers visant à stimuler le goût pour la littérature et la lecture. Entre autres activités, elle a organisé des séminaires avec des enseignants dans le but de sensibiliser les jeunes à la littérature pour enfants et à la tradition orale,.
 </t>
         </is>
       </c>
@@ -546,13 +560,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-1990 : Jimiren Lagune (revue Susa)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1990 : Jimiren Lagune (revue Susa)
 1991 : Luisa (revue Susa)
 1995 : Noiz baina! (revue Egan)
 1996 : Lekurik bai? (Gouvernement basque)
 1996 : Bihozkadak (revue Egan)
-1998 : Jostorratza eta haria (KUTXA)[2]
+1998 : Jostorratza eta haria (KUTXA)
 2000 : Gutiziak (en collaboration avec plusieurs écrivains) (Txalaparta)
 2001 : Jostorratza eta haria (Alberdania)
 2005 : Jostorratza eta haria-Aguja e hilo (Édition bilingue basque-espagnol Atenea)
@@ -560,12 +579,80 @@
 2008 : Uretan lez (Erein)
 2009 : Off-on (Erein)
 2014 : Argiaren alaba (en partie écrit dans le domaine d’Abbadia à Hendaye, dans le cadre d'une résidence d’artiste, avec le programme "Hogei'ta", ensuite édité par l'auteure avec la collaboration de la municipalité de Markina-Xemein, en Biscaye)
-2019 : Ataria (Denonartean)
-Essais
-2005 : Gatzaren atzetik (édité par l'auteure)
-2016 : Aho bete amets: ahozko haur poesiaren alde (Denonartean)
-Littérature pour enfants
-1992 : Badago Aile ez dago...? (Gouvernement Basque; réédité 1998, Aizkorri)
+2019 : Ataria (Denonartean)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yolanda_Arrieta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yolanda_Arrieta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2005 : Gatzaren atzetik (édité par l'auteure)
+2016 : Aho bete amets: ahozko haur poesiaren alde (Denonartean)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yolanda_Arrieta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yolanda_Arrieta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature pour enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1992 : Badago Aile ez dago...? (Gouvernement Basque; réédité 1998, Aizkorri)
 1992 : Begigorritarren erlojua (SM)
 1994 : Hegaldiak (SM)
 1995 : Denboaren kanta-kontuak (SM)
@@ -588,9 +675,43 @@
 2011 : Ai, ai, ai! (Mezulari)
 2012 : Basajaun eta Martin (Erein)
 2014 : Maddalenen usaina (Ibaizabal)
-2017 : Luna-cuna  (Elkar)
-Autres
-2004 : Eskola Antzerkirako Gida, (en collaboration avec Antton Irusta, Idoia Beratarbide et Iñaki Friera, Euskal Idazleen Elkarteak argitaratua)
+2017 : Luna-cuna  (Elkar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yolanda_Arrieta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yolanda_Arrieta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2004 : Eskola Antzerkirako Gida, (en collaboration avec Antton Irusta, Idoia Beratarbide et Iñaki Friera, Euskal Idazleen Elkarteak argitaratua)
 2004 : Ipuina Lantzeko Gida , en collaboration avec Iñaki Friera,Idoia Beratarbide et Antton Irusta (Euskal Idazleen Elkartea)
 2005 : Saldarako (Conte) (IVAP Revue Administrazioa euskaraz, n. 49)
 2006 : Zortzi unibertso, zortzi idazle interviewée par Ana Urkiza (Alberdania)
@@ -601,31 +722,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Yolanda_Arrieta</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Yolanda_Arrieta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1990 : I.Legazpi saria, Antzerkia.
 1991 : Baporea saria
@@ -634,7 +757,7 @@
 1991 : Pedro Barrutia antzerki saria
 1993 : Saint-Sébastien hiria antzerkiko 2. saria
 1998 : Irun hiria saria Décerne un prix Ville d'Irun,par Jostorratza eta haria, diverses éditions.
-2006 : Prix Max par Groau! (Aizkorri) - Meilleure création théâtrale en basque[4].
+2006 : Prix Max par Groau! (Aizkorri) - Meilleure création théâtrale en basque.
 2011 : Peru Abarka saria, Markina Xemeingo Udala
 2015 : Prix Euskadi de Littérature par Argiaren alaba (édition de l'auteure)</t>
         </is>
